--- a/Listas.xlsx
+++ b/Listas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Encargado</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Comercial</t>
+  </si>
+  <si>
+    <t>Seleccione..</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,6 +143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,9 +465,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -495,16 +501,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -512,16 +518,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -529,26 +535,41 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>